--- a/biology/Zoologie/Herona_sumatrana/Herona_sumatrana.xlsx
+++ b/biology/Zoologie/Herona_sumatrana/Herona_sumatrana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herona sumatrana est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Apaturinae et au genre Herona.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Herona sumatrana a été nommé par Moore en 1881[1].
-Noms vernaculaires
-Herona sumatrana se nomme ? en anglais.
-Sous-espèces
-Herona sumatrana sumatrana à Sumatra.
-Herona sumatrana djarang Fruhstorfer, 1893 ; à Nias.
-Herona sumatrana dusuntua Corbet, 1937; en Malaisie.
-Herona sumatrana pringondani Fruhstorfer, 1893 ; à Bali.
-Herona sumatrana schoenbergi Staudinger ; à Bornéo[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herona sumatrana a été nommé par Moore en 1881.
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon de couleur marron doré dans sa partie basale, largement marqué de blanc sauf à l'apex des antérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herona sumatrana se nomme ? en anglais.
 </t>
         </is>
       </c>
@@ -577,12 +590,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Herona sumatrana sumatrana à Sumatra.
+Herona sumatrana djarang Fruhstorfer, 1893 ; à Nias.
+Herona sumatrana dusuntua Corbet, 1937; en Malaisie.
+Herona sumatrana pringondani Fruhstorfer, 1893 ; à Bali.
+Herona sumatrana schoenbergi Staudinger ; à Bornéo.</t>
         </is>
       </c>
     </row>
@@ -607,13 +630,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon de couleur marron doré dans sa partie basale, largement marqué de blanc sauf à l'apex des antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Herona_sumatrana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herona_sumatrana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Asie du sud-est en Malaisie et à Bornéo, Java, Sumatra, Nias et Bali[1].
-Biotope</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du sud-est en Malaisie et à Bornéo, Java, Sumatra, Nias et Bali.
+</t>
         </is>
       </c>
     </row>
